--- a/Homework6/Quiz/data-50.xlsx
+++ b/Homework6/Quiz/data-50.xlsx
@@ -129,24 +129,24 @@
     </row>
     <row r="2">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -155,44 +155,44 @@
         <v>37</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -200,44 +200,44 @@
         <v>25</v>
       </c>
       <c r="B6" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>13</v>
@@ -248,87 +248,87 @@
     </row>
     <row r="9">
       <c r="A9" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="1">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -336,16 +336,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -353,95 +353,95 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D15" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E15" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="E19" s="1">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1">
         <v>19</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>25</v>
@@ -461,214 +461,214 @@
         <v>25</v>
       </c>
       <c r="D21" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E21" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
         <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B23" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C23" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E24" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E25" s="1">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E26" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E27" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B28" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D28" s="1">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D29" s="1">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B30" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1">
         <v>25</v>
       </c>
       <c r="C31" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D32" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C33" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
@@ -676,84 +676,84 @@
         <v>25</v>
       </c>
       <c r="B34" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C34" s="1">
         <v>13</v>
       </c>
       <c r="D34" s="1">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B35" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E35" s="1">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D36" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B37" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C37" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E37" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B38" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C38" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D38" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39">
@@ -764,30 +764,30 @@
         <v>13</v>
       </c>
       <c r="C39" s="1">
+        <v>25</v>
+      </c>
+      <c r="D39" s="1">
         <v>7</v>
       </c>
-      <c r="D39" s="1">
-        <v>25</v>
-      </c>
       <c r="E39" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D40" s="1">
         <v>19</v>
       </c>
       <c r="E40" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
@@ -795,30 +795,30 @@
         <v>19</v>
       </c>
       <c r="B41" s="1">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="C41" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B42" s="1">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E42" s="1">
         <v>13</v>
@@ -826,50 +826,50 @@
     </row>
     <row r="43">
       <c r="A43" s="1">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D43" s="1">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E43" s="1">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B44" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D44" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E44" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C45" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D45" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E45" s="1">
         <v>13</v>
@@ -877,16 +877,16 @@
     </row>
     <row r="46">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D46" s="1">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="E46" s="1">
         <v>37</v>
@@ -894,67 +894,67 @@
     </row>
     <row r="47">
       <c r="A47" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B47" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D47" s="1">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E47" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B48" s="1">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C48" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E48" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B49" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C49" s="1">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D49" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E49" s="1">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C50" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E50" s="1">
         <v>13</v>
@@ -962,19 +962,19 @@
     </row>
     <row r="51">
       <c r="A51" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B51" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D51" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E51" s="1">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
